--- a/data/financial_statements/sofp/REGN.xlsx
+++ b/data/financial_statements/sofp/REGN.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -128,9 +245,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -183,12 +297,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -493,144 +604,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>7022000000</v>
+        <v>7021700000</v>
       </c>
       <c r="C2">
-        <v>7566000000</v>
+        <v>7566400000</v>
       </c>
       <c r="D2">
-        <v>7051000000</v>
+        <v>7050600000</v>
       </c>
       <c r="E2">
-        <v>5695000000</v>
+        <v>5694700000</v>
       </c>
       <c r="F2">
-        <v>5788000000</v>
+        <v>5787600000</v>
       </c>
       <c r="G2">
         <v>3910800000</v>
@@ -736,20 +847,20 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>5548000000</v>
+        <v>5548300000</v>
       </c>
       <c r="C3">
-        <v>5161000000</v>
+        <v>5161400000</v>
       </c>
       <c r="D3">
         <v>4839000000</v>
       </c>
       <c r="E3">
-        <v>6037000000</v>
+        <v>6036500000</v>
       </c>
       <c r="F3">
         <v>5452000000</v>
@@ -858,23 +969,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>2412000000</v>
+        <v>2412200000</v>
       </c>
       <c r="C4">
-        <v>2219000000</v>
+        <v>2218500000</v>
       </c>
       <c r="D4">
-        <v>1992000000</v>
+        <v>1991500000</v>
       </c>
       <c r="E4">
-        <v>1951000000</v>
+        <v>1951300000</v>
       </c>
       <c r="F4">
-        <v>2054000000</v>
+        <v>2053800000</v>
       </c>
       <c r="G4">
         <v>1983900000</v>
@@ -971,8 +1082,8 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
         <v>446000000</v>
@@ -1012,23 +1123,23 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>15429000000</v>
+        <v>15428600000</v>
       </c>
       <c r="C6">
-        <v>15530000000</v>
+        <v>15529900000</v>
       </c>
       <c r="D6">
         <v>14306000000</v>
       </c>
       <c r="E6">
-        <v>14015000000</v>
+        <v>14014900000</v>
       </c>
       <c r="F6">
-        <v>13775000000</v>
+        <v>13775400000</v>
       </c>
       <c r="G6">
         <v>13337600000</v>
@@ -1134,23 +1245,23 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
-        <v>3704000000</v>
+        <v>3704200000</v>
       </c>
       <c r="C7">
-        <v>3638000000</v>
+        <v>3637700000</v>
       </c>
       <c r="D7">
-        <v>3556000000</v>
+        <v>3556400000</v>
       </c>
       <c r="E7">
-        <v>3482000000</v>
+        <v>3482200000</v>
       </c>
       <c r="F7">
-        <v>3396000000</v>
+        <v>3395700000</v>
       </c>
       <c r="G7">
         <v>3358500000</v>
@@ -1256,23 +1367,23 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
-        <v>6030000000</v>
+        <v>5968600000</v>
       </c>
       <c r="C8">
-        <v>6477000000</v>
+        <v>6415900000</v>
       </c>
       <c r="D8">
-        <v>7144000000</v>
+        <v>7084000000</v>
       </c>
       <c r="E8">
-        <v>6891000000</v>
+        <v>6838000000</v>
       </c>
       <c r="F8">
-        <v>5684000000</v>
+        <v>5631300000</v>
       </c>
       <c r="G8">
         <v>3900300000</v>
@@ -1378,19 +1489,19 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>804000000</v>
+        <v>804100000</v>
       </c>
       <c r="E9">
         <v>6700000</v>
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
         <v>1452100000</v>
@@ -1511,23 +1622,23 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>258000000</v>
+        <v>320200000</v>
       </c>
       <c r="C11">
-        <v>209000000</v>
+        <v>269900000</v>
       </c>
       <c r="D11">
-        <v>202000000</v>
+        <v>262000000</v>
       </c>
       <c r="E11">
-        <v>170000000</v>
+        <v>216100000</v>
       </c>
       <c r="F11">
-        <v>93000000</v>
+        <v>145900000</v>
       </c>
       <c r="G11">
         <v>142900000</v>
@@ -1633,8 +1744,8 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
         <v>12249200000</v>
@@ -1755,23 +1866,23 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
-        <v>27678000000</v>
+        <v>27677800000</v>
       </c>
       <c r="C13">
-        <v>27206000000</v>
+        <v>27205800000</v>
       </c>
       <c r="D13">
-        <v>26349000000</v>
+        <v>26348700000</v>
       </c>
       <c r="E13">
-        <v>25435000000</v>
+        <v>25434800000</v>
       </c>
       <c r="F13">
-        <v>23672000000</v>
+        <v>23671500000</v>
       </c>
       <c r="G13">
         <v>21485900000</v>
@@ -1877,17 +1988,17 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
-        <v>536000000</v>
+        <v>535600000</v>
       </c>
       <c r="C14">
-        <v>534000000</v>
+        <v>534200000</v>
       </c>
       <c r="D14">
-        <v>470000000</v>
+        <v>470300000</v>
       </c>
       <c r="E14">
         <v>564000000</v>
@@ -1999,8 +2110,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="E15">
         <v>720000000</v>
@@ -2019,8 +2130,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2084,8 +2195,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>547200000</v>
@@ -2206,23 +2317,23 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
-        <v>2344000000</v>
+        <v>1796400000</v>
       </c>
       <c r="C18">
-        <v>2500000000</v>
+        <v>1933400000</v>
       </c>
       <c r="D18">
-        <v>2537000000</v>
+        <v>2046000000</v>
       </c>
       <c r="E18">
-        <v>2323000000</v>
+        <v>2206800000</v>
       </c>
       <c r="F18">
-        <v>2569000000</v>
+        <v>2061000000</v>
       </c>
       <c r="G18">
         <v>2018000000</v>
@@ -2310,23 +2421,23 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>2879000000</v>
+        <v>2879200000</v>
       </c>
       <c r="C19">
-        <v>3034000000</v>
+        <v>3033900000</v>
       </c>
       <c r="D19">
-        <v>3008000000</v>
+        <v>3007600000</v>
       </c>
       <c r="E19">
-        <v>3933000000</v>
+        <v>3932500000</v>
       </c>
       <c r="F19">
-        <v>3715000000</v>
+        <v>3714800000</v>
       </c>
       <c r="G19">
         <v>3732400000</v>
@@ -2432,23 +2543,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>2701000000</v>
+        <v>2701100000</v>
       </c>
       <c r="C20">
-        <v>2701000000</v>
+        <v>2700700000</v>
       </c>
       <c r="D20">
-        <v>2700000000</v>
+        <v>2700400000</v>
       </c>
       <c r="E20">
         <v>1980000000</v>
       </c>
       <c r="F20">
-        <v>1980000000</v>
+        <v>1979600000</v>
       </c>
       <c r="G20">
         <v>1979200000</v>
@@ -2554,23 +2665,23 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>60000000</v>
+        <v>60100000</v>
       </c>
       <c r="C21">
-        <v>59000000</v>
+        <v>58700000</v>
       </c>
       <c r="D21">
-        <v>34000000</v>
+        <v>33500000</v>
       </c>
       <c r="E21">
-        <v>73000000</v>
+        <v>73300000</v>
       </c>
       <c r="F21">
-        <v>57000000</v>
+        <v>56500000</v>
       </c>
       <c r="G21">
         <v>50700000</v>
@@ -2676,8 +2787,8 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
         <v>-1452000000</v>
@@ -2717,23 +2828,23 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>599000000</v>
+        <v>598600000</v>
       </c>
       <c r="C23">
-        <v>725000000</v>
+        <v>724700000</v>
       </c>
       <c r="D23">
-        <v>693000000</v>
+        <v>692500000</v>
       </c>
       <c r="E23">
-        <v>680000000</v>
+        <v>680200000</v>
       </c>
       <c r="F23">
-        <v>663000000</v>
+        <v>662600000</v>
       </c>
       <c r="G23">
         <v>596300000</v>
@@ -2839,8 +2950,8 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
         <v>3359800000</v>
@@ -2961,8 +3072,8 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
         <v>6239000000</v>
@@ -2977,7 +3088,7 @@
         <v>6666000000</v>
       </c>
       <c r="F25">
-        <v>6414000000</v>
+        <v>6413500000</v>
       </c>
       <c r="G25">
         <v>6358600000</v>
@@ -3083,8 +3194,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
         <v>9518200000</v>
@@ -3205,23 +3316,23 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="G27">
         <v>100000</v>
@@ -3327,23 +3438,23 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
-        <v>22110000000</v>
+        <v>22109600000</v>
       </c>
       <c r="C28">
-        <v>20794000000</v>
+        <v>20793900000</v>
       </c>
       <c r="D28">
-        <v>19942000000</v>
+        <v>19941800000</v>
       </c>
       <c r="E28">
-        <v>18968000000</v>
+        <v>18968300000</v>
       </c>
       <c r="F28">
-        <v>16739000000</v>
+        <v>16739300000</v>
       </c>
       <c r="G28">
         <v>15107100000</v>
@@ -3449,8 +3560,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
         <v>9914000000</v>
@@ -3556,20 +3667,20 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
-        <v>21439000000</v>
+        <v>21438800000</v>
       </c>
       <c r="C30">
-        <v>20688000000</v>
+        <v>20687800000</v>
       </c>
       <c r="D30">
-        <v>19915000000</v>
+        <v>19914700000</v>
       </c>
       <c r="E30">
-        <v>18769000000</v>
+        <v>18768800000</v>
       </c>
       <c r="F30">
         <v>17258000000</v>
@@ -3678,20 +3789,20 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
-        <v>21439000000</v>
+        <v>21438800000</v>
       </c>
       <c r="C31">
-        <v>20688000000</v>
+        <v>20687800000</v>
       </c>
       <c r="D31">
-        <v>19915000000</v>
+        <v>19914700000</v>
       </c>
       <c r="E31">
-        <v>18769000000</v>
+        <v>18768800000</v>
       </c>
       <c r="F31">
         <v>17258000000</v>
@@ -3800,8 +3911,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>27677800000</v>
@@ -3922,8 +4033,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
         <v>108800000</v>
@@ -4044,8 +4155,8 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
         <v>20634700000</v>
@@ -4166,20 +4277,20 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
-        <v>-4321000000</v>
+        <v>-4320600000</v>
       </c>
       <c r="C35">
-        <v>-4865000000</v>
+        <v>-4865700000</v>
       </c>
       <c r="D35">
-        <v>-4351000000</v>
+        <v>-4350200000</v>
       </c>
       <c r="E35">
-        <v>-2995000000</v>
+        <v>-2994700000</v>
       </c>
       <c r="F35">
         <v>-3089000000</v>
@@ -4288,23 +4399,23 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
-        <v>2701000000</v>
+        <v>2701100000</v>
       </c>
       <c r="C36">
-        <v>2701000000</v>
+        <v>2700700000</v>
       </c>
       <c r="D36">
-        <v>2700000000</v>
+        <v>2700400000</v>
       </c>
       <c r="E36">
         <v>2700000000</v>
       </c>
       <c r="F36">
-        <v>2699000000</v>
+        <v>2698600000</v>
       </c>
       <c r="G36">
         <v>2697200000</v>
